--- a/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -667,7 +667,7 @@
     <t>PaisOrigen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI}
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>Religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Religion}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Religion}
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
     <t>SexoBiologico</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>identidadGenero</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero}
 </t>
   </si>
   <si>
@@ -735,7 +735,7 @@
     <t>PueblosOriginariosPerteneciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente}
 </t>
   </si>
   <si>
@@ -745,7 +745,7 @@
     <t>PueblosAfrodescendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente}
 </t>
   </si>
   <si>
@@ -755,7 +755,7 @@
     <t>PueblosOriginarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios}
 </t>
   </si>
   <si>
@@ -1705,7 +1705,7 @@
     <t>SituacionCalle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle}
 </t>
   </si>
   <si>
@@ -2055,7 +2055,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSEstadoCivil</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSEstadoCivil</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -3042,7 +3042,7 @@
     <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3057,7 +3057,7 @@
     <col min="23" max="23" width="9.16015625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.05078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.34375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="74.1484375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-PacienteMinsalMPI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
